--- a/RedCap_SubjectsInfo/STARR.sn.all.subject.info.xlsx
+++ b/RedCap_SubjectsInfo/STARR.sn.all.subject.info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -26,31 +26,37 @@
     <t>recruited_from</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>bmi</t>
-  </si>
-  <si>
-    <t>glucose</t>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age_Group</t>
+  </si>
+  <si>
+    <t>Height (inches)</t>
+  </si>
+  <si>
+    <t>Weight (pounds)</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Glucose</t>
+  </si>
+  <si>
+    <t>A1c Value</t>
   </si>
   <si>
     <t>fasting</t>
   </si>
   <si>
-    <t>hemoglobin_a1c</t>
-  </si>
-  <si>
-    <t>Age.group</t>
+    <t>dbc4_diabetes</t>
   </si>
   <si>
     <t>STARR_015</t>
@@ -254,10 +260,28 @@
     <t>STRA0099</t>
   </si>
   <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
     <t>Older</t>
   </si>
   <si>
     <t>Middle</t>
+  </si>
+  <si>
+    <t>Obese</t>
+  </si>
+  <si>
+    <t>Lean</t>
+  </si>
+  <si>
+    <t>Overweight</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -348,1358 +372,1562 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D2" t="n">
         <v>3.0</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="n">
         <v>71.0</v>
       </c>
-      <c r="F2" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>208.0</v>
+      <c r="G2" t="s">
+        <v>84</v>
       </c>
       <c r="H2" t="n">
         <v>65.0</v>
       </c>
       <c r="I2" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="J2" t="n">
         <v>34.6092307692307</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" t="n">
         <v>120.0</v>
       </c>
-      <c r="K2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>6.0</v>
       </c>
-      <c r="M2" t="s">
-        <v>80</v>
+      <c r="N2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
         <v>3.0</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="n">
         <v>64.0</v>
       </c>
-      <c r="F3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>105.0</v>
+      <c r="G3" t="s">
+        <v>85</v>
       </c>
       <c r="H3" t="n">
         <v>59.0</v>
       </c>
       <c r="I3" t="n">
+        <v>105.0</v>
+      </c>
+      <c r="J3" t="n">
         <v>21.2051134731399</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" t="n">
         <v>85.0</v>
       </c>
-      <c r="K3" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>5.2</v>
       </c>
-      <c r="M3" t="s">
-        <v>81</v>
+      <c r="N3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" t="n">
         <v>1.0</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="n">
         <v>49.0</v>
       </c>
-      <c r="F4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>131.1</v>
+      <c r="G4" t="s">
+        <v>85</v>
       </c>
       <c r="H4" t="n">
         <v>64.5</v>
       </c>
       <c r="I4" t="n">
+        <v>131.1</v>
+      </c>
+      <c r="J4" t="n">
         <v>22.1533080944654</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" t="n">
         <v>85.0</v>
       </c>
-      <c r="K4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>5.4</v>
       </c>
-      <c r="M4" t="s">
-        <v>81</v>
+      <c r="N4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
         <v>1.0</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" t="n">
         <v>74.0</v>
       </c>
-      <c r="F5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>156.0</v>
+      <c r="G5" t="s">
+        <v>84</v>
       </c>
       <c r="H5" t="n">
         <v>66.0</v>
       </c>
       <c r="I5" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="J5" t="n">
         <v>25.1763085399449</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="n">
         <v>101.0</v>
       </c>
-      <c r="K5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>5.6</v>
       </c>
-      <c r="M5" t="s">
-        <v>80</v>
+      <c r="N5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
         <v>1.0</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="n">
         <v>65.0</v>
       </c>
-      <c r="F6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>234.0</v>
+      <c r="G6" t="s">
+        <v>84</v>
       </c>
       <c r="H6" t="n">
         <v>68.0</v>
       </c>
       <c r="I6" t="n">
+        <v>234.0</v>
+      </c>
+      <c r="J6" t="n">
         <v>35.5756920415224</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="n">
         <v>88.0</v>
       </c>
-      <c r="K6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>5.2</v>
       </c>
-      <c r="M6" t="s">
-        <v>80</v>
+      <c r="N6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
         <v>4.0</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="n">
         <v>56.0</v>
       </c>
-      <c r="F7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>156.0</v>
+      <c r="G7" t="s">
+        <v>85</v>
       </c>
       <c r="H7" t="n">
         <v>63.0</v>
       </c>
       <c r="I7" t="n">
+        <v>156.0</v>
+      </c>
+      <c r="J7" t="n">
         <v>27.631141345427</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="n">
         <v>87.0</v>
       </c>
-      <c r="K7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>4.8</v>
       </c>
-      <c r="M7" t="s">
-        <v>81</v>
+      <c r="N7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" t="n">
         <v>71.0</v>
       </c>
-      <c r="F8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>135.2</v>
+      <c r="G8" t="s">
+        <v>84</v>
       </c>
       <c r="H8" t="n">
         <v>64.0</v>
       </c>
       <c r="I8" t="n">
+        <v>135.2</v>
+      </c>
+      <c r="J8" t="n">
         <v>23.2044921874999</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" t="n">
         <v>94.0</v>
       </c>
-      <c r="K8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>5.4</v>
       </c>
-      <c r="M8" t="s">
-        <v>80</v>
+      <c r="N8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9" t="n">
         <v>1.0</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" t="n">
         <v>73.0</v>
       </c>
-      <c r="F9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>230.0</v>
+      <c r="G9" t="s">
+        <v>84</v>
       </c>
       <c r="H9" t="n">
         <v>62.5</v>
       </c>
       <c r="I9" t="n">
+        <v>230.0</v>
+      </c>
+      <c r="J9" t="n">
         <v>41.39264</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" t="n">
         <v>103.0</v>
       </c>
-      <c r="K9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>5.9</v>
       </c>
-      <c r="M9" t="s">
-        <v>80</v>
+      <c r="N9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D10" t="n">
         <v>1.0</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="n">
         <v>80.0</v>
       </c>
-      <c r="F10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>166.5</v>
+      <c r="G10" t="s">
+        <v>84</v>
       </c>
       <c r="H10" t="n">
         <v>70.0</v>
       </c>
       <c r="I10" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="J10" t="n">
         <v>23.8876530612244</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" t="n">
         <v>108.0</v>
       </c>
-      <c r="K10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>5.6</v>
       </c>
-      <c r="M10" t="s">
-        <v>80</v>
+      <c r="N10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" t="n">
         <v>1.0</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="n">
         <v>75.0</v>
       </c>
-      <c r="F11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>214.5</v>
+      <c r="G11" t="s">
+        <v>84</v>
       </c>
       <c r="H11" t="n">
         <v>69.0</v>
       </c>
       <c r="I11" t="n">
+        <v>214.5</v>
+      </c>
+      <c r="J11" t="n">
         <v>31.6726528040327</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="n">
         <v>101.0</v>
       </c>
-      <c r="K11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>5.7</v>
       </c>
-      <c r="M11" t="s">
-        <v>80</v>
+      <c r="N11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D12" t="n">
         <v>1.0</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="n">
         <v>71.0</v>
       </c>
-      <c r="F12" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>162.5</v>
+      <c r="G12" t="s">
+        <v>84</v>
       </c>
       <c r="H12" t="n">
         <v>67.0</v>
       </c>
       <c r="I12" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="J12" t="n">
         <v>25.4483181109378</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="s">
+        <v>88</v>
+      </c>
+      <c r="L12" t="n">
         <v>103.0</v>
       </c>
-      <c r="K12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>5.1</v>
       </c>
-      <c r="M12" t="s">
-        <v>80</v>
+      <c r="N12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" t="n">
         <v>1.0</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="n">
         <v>82.0</v>
       </c>
-      <c r="F13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>133.4</v>
+      <c r="G13" t="s">
+        <v>84</v>
       </c>
       <c r="H13" t="n">
         <v>61.0</v>
       </c>
       <c r="I13" t="n">
+        <v>133.4</v>
+      </c>
+      <c r="J13" t="n">
         <v>25.2029561945713</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="s">
+        <v>88</v>
+      </c>
+      <c r="L13" t="n">
         <v>81.0</v>
       </c>
-      <c r="K13" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>5.3</v>
       </c>
-      <c r="M13" t="s">
-        <v>80</v>
+      <c r="N13" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" t="n">
         <v>1.0</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="n">
         <v>72.0</v>
       </c>
-      <c r="F14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>176.5</v>
+      <c r="G14" t="s">
+        <v>84</v>
       </c>
       <c r="H14" t="n">
         <v>66.0</v>
       </c>
       <c r="I14" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="J14" t="n">
         <v>28.4847337006427</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" t="n">
         <v>104.0</v>
       </c>
-      <c r="K14" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>5.7</v>
       </c>
-      <c r="M14" t="s">
-        <v>80</v>
+      <c r="N14" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" t="n">
         <v>1.0</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="n">
         <v>64.0</v>
       </c>
-      <c r="F15" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>196.0</v>
+      <c r="G15" t="s">
+        <v>85</v>
       </c>
       <c r="H15" t="n">
         <v>73.0</v>
       </c>
       <c r="I15" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="J15" t="n">
         <v>25.8562582097954</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" t="n">
         <v>111.0</v>
       </c>
-      <c r="K15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>5.2</v>
       </c>
-      <c r="M15" t="s">
-        <v>81</v>
+      <c r="N15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16" t="n">
         <v>3.0</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" t="n">
         <v>75.0</v>
       </c>
-      <c r="F16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>152.0</v>
+      <c r="G16" t="s">
+        <v>84</v>
       </c>
       <c r="H16" t="n">
         <v>63.5</v>
       </c>
       <c r="I16" t="n">
+        <v>152.0</v>
+      </c>
+      <c r="J16" t="n">
         <v>26.500341000682</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" t="n">
         <v>87.0</v>
       </c>
-      <c r="K16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>4.9</v>
       </c>
-      <c r="M16" t="s">
-        <v>80</v>
+      <c r="N16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D17" t="n">
         <v>1.0</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" t="n">
         <v>67.0</v>
       </c>
-      <c r="F17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>109.36</v>
+      <c r="G17" t="s">
+        <v>84</v>
       </c>
       <c r="H17" t="n">
         <v>62.0</v>
       </c>
       <c r="I17" t="n">
+        <v>109.36</v>
+      </c>
+      <c r="J17" t="n">
         <v>20.0000208116545</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" t="n">
         <v>95.0</v>
       </c>
-      <c r="K17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>5.5</v>
       </c>
-      <c r="M17" t="s">
-        <v>80</v>
+      <c r="N17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D18" t="n">
         <v>3.0</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="n">
         <v>78.0</v>
       </c>
-      <c r="F18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>195.0</v>
+      <c r="G18" t="s">
+        <v>84</v>
       </c>
       <c r="H18" t="n">
         <v>66.0</v>
       </c>
       <c r="I18" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="J18" t="n">
         <v>31.4703856749311</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" t="n">
         <v>101.0</v>
       </c>
-      <c r="K18" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>5.8</v>
       </c>
-      <c r="M18" t="s">
-        <v>80</v>
+      <c r="N18" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D19" t="n">
         <v>1.0</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="n">
         <v>68.0</v>
       </c>
-      <c r="F19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>146.5</v>
+      <c r="G19" t="s">
+        <v>84</v>
       </c>
       <c r="H19" t="n">
         <v>61.0</v>
       </c>
       <c r="I19" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="J19" t="n">
         <v>27.6779091642031</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" t="n">
         <v>92.0</v>
       </c>
-      <c r="K19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>5.6</v>
       </c>
-      <c r="M19" t="s">
-        <v>80</v>
+      <c r="N19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" t="n">
         <v>1.0</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="n">
         <v>61.0</v>
       </c>
-      <c r="F20" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>170.0</v>
+      <c r="G20" t="s">
+        <v>85</v>
       </c>
       <c r="H20" t="n">
         <v>67.0</v>
       </c>
       <c r="I20" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="J20" t="n">
         <v>26.6228558699042</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" t="n">
         <v>99.0</v>
       </c>
-      <c r="K20" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>5.4</v>
       </c>
-      <c r="M20" t="s">
-        <v>81</v>
+      <c r="N20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" t="n">
         <v>1.0</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="n">
         <v>72.0</v>
       </c>
-      <c r="F21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>152.5</v>
+      <c r="G21" t="s">
+        <v>84</v>
       </c>
       <c r="H21" t="n">
         <v>63.0</v>
       </c>
       <c r="I21" t="n">
+        <v>152.5</v>
+      </c>
+      <c r="J21" t="n">
         <v>27.0112118921642</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" t="n">
         <v>77.0</v>
       </c>
-      <c r="K21" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>5.1</v>
       </c>
-      <c r="M21" t="s">
-        <v>80</v>
+      <c r="N21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" t="n">
         <v>3.0</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" t="n">
         <v>74.0</v>
       </c>
-      <c r="F22" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>208.0</v>
+      <c r="G22" t="s">
+        <v>84</v>
       </c>
       <c r="H22" t="n">
         <v>69.0</v>
       </c>
       <c r="I22" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="J22" t="n">
         <v>30.7128754463348</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" t="n">
         <v>102.0</v>
       </c>
-      <c r="K22" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>5.9</v>
       </c>
-      <c r="M22" t="s">
-        <v>80</v>
+      <c r="N22" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" t="n">
         <v>2.0</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" t="n">
         <v>54.0</v>
       </c>
-      <c r="F23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>118.3</v>
+      <c r="G23" t="s">
+        <v>85</v>
       </c>
       <c r="H23" t="n">
         <v>61.5</v>
       </c>
       <c r="I23" t="n">
+        <v>118.3</v>
+      </c>
+      <c r="J23" t="n">
         <v>21.9882080772027</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" t="n">
         <v>86.0</v>
       </c>
-      <c r="K23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>5.2</v>
       </c>
-      <c r="M23" t="s">
-        <v>81</v>
+      <c r="N23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" t="n">
         <v>1.0</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="n">
         <v>79.0</v>
       </c>
-      <c r="F24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>108.8</v>
+      <c r="G24" t="s">
+        <v>84</v>
       </c>
       <c r="H24" t="n">
         <v>62.5</v>
       </c>
       <c r="I24" t="n">
+        <v>108.8</v>
+      </c>
+      <c r="J24" t="n">
         <v>19.5805184</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" t="n">
         <v>88.0</v>
       </c>
-      <c r="K24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>5.4</v>
       </c>
-      <c r="M24" t="s">
-        <v>80</v>
+      <c r="N24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25" t="n">
         <v>1.0</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" t="n">
         <v>45.0</v>
       </c>
-      <c r="F25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>164.6</v>
+      <c r="G25" t="s">
+        <v>85</v>
       </c>
       <c r="H25" t="n">
         <v>61.0</v>
       </c>
       <c r="I25" t="n">
+        <v>164.6</v>
+      </c>
+      <c r="J25" t="n">
         <v>31.0975006718624</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" t="n">
         <v>91.0</v>
       </c>
-      <c r="K25" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>5.2</v>
       </c>
-      <c r="M25" t="s">
-        <v>81</v>
+      <c r="N25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D26" t="n">
         <v>1.0</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" t="n">
         <v>82.0</v>
       </c>
-      <c r="F26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>156.8</v>
+      <c r="G26" t="s">
+        <v>84</v>
       </c>
       <c r="H26" t="n">
         <v>61.0</v>
       </c>
       <c r="I26" t="n">
+        <v>156.8</v>
+      </c>
+      <c r="J26" t="n">
         <v>29.6238645525396</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="s">
+        <v>88</v>
+      </c>
+      <c r="L26" t="n">
         <v>114.0</v>
       </c>
-      <c r="K26" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>7.2</v>
       </c>
-      <c r="M26" t="s">
-        <v>80</v>
+      <c r="N26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D27" t="n">
         <v>1.0</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" t="n">
         <v>70.0</v>
       </c>
-      <c r="F27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>141.6</v>
+      <c r="G27" t="s">
+        <v>84</v>
       </c>
       <c r="H27" t="n">
         <v>67.0</v>
       </c>
       <c r="I27" t="n">
+        <v>141.6</v>
+      </c>
+      <c r="J27" t="n">
         <v>22.1752728892849</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" t="n">
         <v>104.0</v>
       </c>
-      <c r="K27" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>5.0</v>
       </c>
-      <c r="M27" t="s">
-        <v>80</v>
+      <c r="N27" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D28" t="n">
         <v>1.0</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" t="n">
         <v>75.0</v>
       </c>
-      <c r="F28" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>145.0</v>
+      <c r="G28" t="s">
+        <v>84</v>
       </c>
       <c r="H28" t="n">
         <v>68.5</v>
       </c>
       <c r="I28" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="J28" t="n">
         <v>21.724119558847</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="s">
+        <v>87</v>
+      </c>
+      <c r="L28" t="n">
         <v>86.0</v>
       </c>
-      <c r="K28" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>5.3</v>
       </c>
-      <c r="M28" t="s">
-        <v>80</v>
+      <c r="N28" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D29" t="n">
         <v>1.0</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" t="n">
         <v>89.0</v>
       </c>
-      <c r="F29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>157.0</v>
+      <c r="G29" t="s">
+        <v>84</v>
       </c>
       <c r="H29" t="n">
         <v>61.0</v>
       </c>
       <c r="I29" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="J29" t="n">
         <v>29.6616500940607</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" t="n">
         <v>97.0</v>
       </c>
-      <c r="K29" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>6.0</v>
       </c>
-      <c r="M29" t="s">
-        <v>80</v>
+      <c r="N29" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D30" t="n">
         <v>1.0</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" t="n">
         <v>77.0</v>
       </c>
-      <c r="F30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>128.0</v>
+      <c r="G30" t="s">
+        <v>84</v>
       </c>
       <c r="H30" t="n">
         <v>61.5</v>
       </c>
       <c r="I30" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="J30" t="n">
         <v>23.7911296186132</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" t="n">
         <v>93.0</v>
       </c>
-      <c r="K30" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>5.4</v>
       </c>
-      <c r="M30" t="s">
-        <v>80</v>
+      <c r="N30" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D31" t="n">
         <v>1.0</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" t="n">
         <v>65.0</v>
       </c>
-      <c r="F31" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>180.0</v>
+      <c r="G31" t="s">
+        <v>84</v>
       </c>
       <c r="H31" t="n">
         <v>70.5</v>
       </c>
       <c r="I31" t="n">
+        <v>180.0</v>
+      </c>
+      <c r="J31" t="n">
         <v>25.4594839293798</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" t="n">
         <v>92.0</v>
       </c>
-      <c r="K31" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>5.4</v>
       </c>
-      <c r="M31" t="s">
-        <v>80</v>
+      <c r="N31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D32" t="n">
         <v>1.0</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" t="n">
         <v>78.0</v>
       </c>
-      <c r="F32" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>182.32</v>
+      <c r="G32" t="s">
+        <v>84</v>
       </c>
       <c r="H32" t="n">
         <v>72.1</v>
       </c>
       <c r="I32" t="n">
+        <v>182.32</v>
+      </c>
+      <c r="J32" t="n">
         <v>24.6558005236216</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="s">
+        <v>87</v>
+      </c>
+      <c r="L32" t="n">
         <v>91.0</v>
       </c>
-      <c r="K32" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>5.1</v>
       </c>
-      <c r="M32" t="s">
-        <v>80</v>
+      <c r="N32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D33" t="n">
         <v>1.0</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" t="n">
         <v>53.0</v>
       </c>
-      <c r="F33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>191.36</v>
+      <c r="G33" t="s">
+        <v>85</v>
       </c>
       <c r="H33" t="n">
         <v>71.0</v>
       </c>
       <c r="I33" t="n">
+        <v>191.36</v>
+      </c>
+      <c r="J33" t="n">
         <v>26.6863876215036</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="s">
+        <v>88</v>
+      </c>
+      <c r="L33" t="n">
         <v>86.0</v>
       </c>
-      <c r="K33" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>5.4</v>
       </c>
-      <c r="M33" t="s">
-        <v>81</v>
+      <c r="N33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D34" t="n">
         <v>1.0</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" t="n">
         <v>66.0</v>
       </c>
-      <c r="F34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>76.5</v>
+      <c r="G34" t="s">
+        <v>84</v>
       </c>
       <c r="H34" t="n">
         <v>65.0</v>
       </c>
       <c r="I34" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="J34" t="n">
         <v>12.7288757396449</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="s">
+        <v>89</v>
+      </c>
+      <c r="L34" t="n">
         <v>93.0</v>
       </c>
-      <c r="K34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>5.5</v>
       </c>
-      <c r="M34" t="s">
-        <v>80</v>
+      <c r="N34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/RedCap_SubjectsInfo/STARR.sn.all.subject.info.xlsx
+++ b/RedCap_SubjectsInfo/STARR.sn.all.subject.info.xlsx
@@ -408,7 +408,7 @@
         <v>208.0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.6092307692307</v>
+        <v>34.6092307692308</v>
       </c>
       <c r="K2" t="s">
         <v>86</v>
@@ -502,7 +502,7 @@
         <v>131.1</v>
       </c>
       <c r="J4" t="n">
-        <v>22.1533080944654</v>
+        <v>22.1533080944655</v>
       </c>
       <c r="K4" t="s">
         <v>87</v>
@@ -596,7 +596,7 @@
         <v>234.0</v>
       </c>
       <c r="J6" t="n">
-        <v>35.5756920415224</v>
+        <v>35.5756920415225</v>
       </c>
       <c r="K6" t="s">
         <v>86</v>
@@ -643,7 +643,7 @@
         <v>156.0</v>
       </c>
       <c r="J7" t="n">
-        <v>27.631141345427</v>
+        <v>27.6311413454271</v>
       </c>
       <c r="K7" t="s">
         <v>88</v>
@@ -690,7 +690,7 @@
         <v>135.2</v>
       </c>
       <c r="J8" t="n">
-        <v>23.2044921874999</v>
+        <v>23.2044921875</v>
       </c>
       <c r="K8" t="s">
         <v>87</v>
@@ -784,7 +784,7 @@
         <v>166.5</v>
       </c>
       <c r="J10" t="n">
-        <v>23.8876530612244</v>
+        <v>23.8876530612245</v>
       </c>
       <c r="K10" t="s">
         <v>87</v>
@@ -831,7 +831,7 @@
         <v>214.5</v>
       </c>
       <c r="J11" t="n">
-        <v>31.6726528040327</v>
+        <v>31.6726528040328</v>
       </c>
       <c r="K11" t="s">
         <v>86</v>
@@ -925,7 +925,7 @@
         <v>133.4</v>
       </c>
       <c r="J13" t="n">
-        <v>25.2029561945713</v>
+        <v>25.2029561945714</v>
       </c>
       <c r="K13" t="s">
         <v>88</v>
@@ -972,7 +972,7 @@
         <v>176.5</v>
       </c>
       <c r="J14" t="n">
-        <v>28.4847337006427</v>
+        <v>28.4847337006428</v>
       </c>
       <c r="K14" t="s">
         <v>88</v>
@@ -1019,7 +1019,7 @@
         <v>196.0</v>
       </c>
       <c r="J15" t="n">
-        <v>25.8562582097954</v>
+        <v>25.8562582097955</v>
       </c>
       <c r="K15" t="s">
         <v>88</v>
@@ -1207,7 +1207,7 @@
         <v>146.5</v>
       </c>
       <c r="J19" t="n">
-        <v>27.6779091642031</v>
+        <v>27.6779091642032</v>
       </c>
       <c r="K19" t="s">
         <v>88</v>
@@ -1301,7 +1301,7 @@
         <v>152.5</v>
       </c>
       <c r="J21" t="n">
-        <v>27.0112118921642</v>
+        <v>27.0112118921643</v>
       </c>
       <c r="K21" t="s">
         <v>88</v>
@@ -1330,7 +1330,7 @@
         <v>69</v>
       </c>
       <c r="D22" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E22" t="s">
         <v>82</v>
@@ -1724,7 +1724,7 @@
         <v>128.0</v>
       </c>
       <c r="J30" t="n">
-        <v>23.7911296186132</v>
+        <v>23.7911296186133</v>
       </c>
       <c r="K30" t="s">
         <v>87</v>
@@ -1818,7 +1818,7 @@
         <v>182.32</v>
       </c>
       <c r="J32" t="n">
-        <v>24.6558005236216</v>
+        <v>24.6558005236217</v>
       </c>
       <c r="K32" t="s">
         <v>87</v>
@@ -1865,7 +1865,7 @@
         <v>191.36</v>
       </c>
       <c r="J33" t="n">
-        <v>26.6863876215036</v>
+        <v>26.6863876215037</v>
       </c>
       <c r="K33" t="s">
         <v>88</v>
@@ -1912,7 +1912,7 @@
         <v>76.5</v>
       </c>
       <c r="J34" t="n">
-        <v>12.7288757396449</v>
+        <v>12.728875739645</v>
       </c>
       <c r="K34" t="s">
         <v>89</v>

--- a/RedCap_SubjectsInfo/STARR.sn.all.subject.info.xlsx
+++ b/RedCap_SubjectsInfo/STARR.sn.all.subject.info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="100">
   <si>
     <t>id</t>
   </si>
@@ -149,6 +149,12 @@
     <t>STARR_093</t>
   </si>
   <si>
+    <t>STARR_095</t>
+  </si>
+  <si>
+    <t>STARR_096</t>
+  </si>
+  <si>
     <t>STARR_097</t>
   </si>
   <si>
@@ -158,6 +164,15 @@
     <t>STARR_099</t>
   </si>
   <si>
+    <t>STARR_101</t>
+  </si>
+  <si>
+    <t>STARR_104</t>
+  </si>
+  <si>
+    <t>STARR_105</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -251,6 +266,12 @@
     <t>STRA0093</t>
   </si>
   <si>
+    <t>STRA0095</t>
+  </si>
+  <si>
+    <t>STRA0096</t>
+  </si>
+  <si>
     <t>STRA0097</t>
   </si>
   <si>
@@ -258,6 +279,15 @@
   </si>
   <si>
     <t>STRA0099</t>
+  </si>
+  <si>
+    <t>STRA0101</t>
+  </si>
+  <si>
+    <t>STRA0104</t>
+  </si>
+  <si>
+    <t>STRA0105</t>
   </si>
   <si>
     <t>Male</t>
@@ -384,22 +414,22 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D2" t="n">
         <v>3.0</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F2" t="n">
         <v>71.0</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H2" t="n">
         <v>65.0</v>
@@ -411,7 +441,7 @@
         <v>34.6092307692308</v>
       </c>
       <c r="K2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L2" t="n">
         <v>120.0</v>
@@ -431,22 +461,22 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
         <v>3.0</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F3" t="n">
         <v>64.0</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H3" t="n">
         <v>59.0</v>
@@ -458,7 +488,7 @@
         <v>21.2051134731399</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L3" t="n">
         <v>85.0</v>
@@ -478,22 +508,22 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
         <v>1.0</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F4" t="n">
         <v>49.0</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H4" t="n">
         <v>64.5</v>
@@ -505,7 +535,7 @@
         <v>22.1533080944655</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L4" t="n">
         <v>85.0</v>
@@ -525,22 +555,22 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D5" t="n">
         <v>1.0</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F5" t="n">
         <v>74.0</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H5" t="n">
         <v>66.0</v>
@@ -552,7 +582,7 @@
         <v>25.1763085399449</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L5" t="n">
         <v>101.0</v>
@@ -572,22 +602,22 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n">
         <v>1.0</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F6" t="n">
         <v>65.0</v>
       </c>
       <c r="G6" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H6" t="n">
         <v>68.0</v>
@@ -599,7 +629,7 @@
         <v>35.5756920415225</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L6" t="n">
         <v>88.0</v>
@@ -619,22 +649,22 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D7" t="n">
         <v>4.0</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F7" t="n">
         <v>56.0</v>
       </c>
       <c r="G7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H7" t="n">
         <v>63.0</v>
@@ -646,7 +676,7 @@
         <v>27.6311413454271</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L7" t="n">
         <v>87.0</v>
@@ -666,22 +696,22 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D8" t="e">
         <v>#N/A</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F8" t="n">
         <v>71.0</v>
       </c>
       <c r="G8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H8" t="n">
         <v>64.0</v>
@@ -693,7 +723,7 @@
         <v>23.2044921875</v>
       </c>
       <c r="K8" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L8" t="n">
         <v>94.0</v>
@@ -713,22 +743,22 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D9" t="n">
         <v>1.0</v>
       </c>
       <c r="E9" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F9" t="n">
         <v>73.0</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H9" t="n">
         <v>62.5</v>
@@ -740,7 +770,7 @@
         <v>41.39264</v>
       </c>
       <c r="K9" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L9" t="n">
         <v>103.0</v>
@@ -760,22 +790,22 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D10" t="n">
         <v>1.0</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F10" t="n">
         <v>80.0</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H10" t="n">
         <v>70.0</v>
@@ -787,7 +817,7 @@
         <v>23.8876530612245</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L10" t="n">
         <v>108.0</v>
@@ -807,22 +837,22 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D11" t="n">
         <v>1.0</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F11" t="n">
         <v>75.0</v>
       </c>
       <c r="G11" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H11" t="n">
         <v>69.0</v>
@@ -834,7 +864,7 @@
         <v>31.6726528040328</v>
       </c>
       <c r="K11" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L11" t="n">
         <v>101.0</v>
@@ -854,22 +884,22 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D12" t="n">
         <v>1.0</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F12" t="n">
         <v>71.0</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H12" t="n">
         <v>67.0</v>
@@ -881,7 +911,7 @@
         <v>25.4483181109378</v>
       </c>
       <c r="K12" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L12" t="n">
         <v>103.0</v>
@@ -901,22 +931,22 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D13" t="n">
         <v>1.0</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F13" t="n">
         <v>82.0</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H13" t="n">
         <v>61.0</v>
@@ -928,7 +958,7 @@
         <v>25.2029561945714</v>
       </c>
       <c r="K13" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L13" t="n">
         <v>81.0</v>
@@ -948,22 +978,22 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D14" t="n">
         <v>1.0</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F14" t="n">
         <v>72.0</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H14" t="n">
         <v>66.0</v>
@@ -975,7 +1005,7 @@
         <v>28.4847337006428</v>
       </c>
       <c r="K14" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L14" t="n">
         <v>104.0</v>
@@ -995,22 +1025,22 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D15" t="n">
         <v>1.0</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F15" t="n">
         <v>64.0</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H15" t="n">
         <v>73.0</v>
@@ -1022,7 +1052,7 @@
         <v>25.8562582097955</v>
       </c>
       <c r="K15" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L15" t="n">
         <v>111.0</v>
@@ -1042,22 +1072,22 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D16" t="n">
         <v>3.0</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F16" t="n">
         <v>75.0</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H16" t="n">
         <v>63.5</v>
@@ -1069,7 +1099,7 @@
         <v>26.500341000682</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L16" t="n">
         <v>87.0</v>
@@ -1089,22 +1119,22 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D17" t="n">
         <v>1.0</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F17" t="n">
         <v>67.0</v>
       </c>
       <c r="G17" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H17" t="n">
         <v>62.0</v>
@@ -1116,7 +1146,7 @@
         <v>20.0000208116545</v>
       </c>
       <c r="K17" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L17" t="n">
         <v>95.0</v>
@@ -1136,22 +1166,22 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D18" t="n">
         <v>3.0</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F18" t="n">
         <v>78.0</v>
       </c>
       <c r="G18" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H18" t="n">
         <v>66.0</v>
@@ -1163,7 +1193,7 @@
         <v>31.4703856749311</v>
       </c>
       <c r="K18" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L18" t="n">
         <v>101.0</v>
@@ -1183,22 +1213,22 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D19" t="n">
         <v>1.0</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F19" t="n">
         <v>68.0</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H19" t="n">
         <v>61.0</v>
@@ -1210,7 +1240,7 @@
         <v>27.6779091642032</v>
       </c>
       <c r="K19" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L19" t="n">
         <v>92.0</v>
@@ -1230,22 +1260,22 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D20" t="n">
         <v>1.0</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F20" t="n">
         <v>61.0</v>
       </c>
       <c r="G20" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H20" t="n">
         <v>67.0</v>
@@ -1257,7 +1287,7 @@
         <v>26.6228558699042</v>
       </c>
       <c r="K20" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L20" t="n">
         <v>99.0</v>
@@ -1277,22 +1307,22 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D21" t="n">
         <v>1.0</v>
       </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F21" t="n">
         <v>72.0</v>
       </c>
       <c r="G21" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H21" t="n">
         <v>63.0</v>
@@ -1304,7 +1334,7 @@
         <v>27.0112118921643</v>
       </c>
       <c r="K21" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L21" t="n">
         <v>77.0</v>
@@ -1324,22 +1354,22 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D22" t="n">
         <v>1.0</v>
       </c>
       <c r="E22" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F22" t="n">
         <v>74.0</v>
       </c>
       <c r="G22" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H22" t="n">
         <v>69.0</v>
@@ -1351,7 +1381,7 @@
         <v>30.7128754463348</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L22" t="n">
         <v>102.0</v>
@@ -1371,22 +1401,22 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D23" t="n">
         <v>2.0</v>
       </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F23" t="n">
         <v>54.0</v>
       </c>
       <c r="G23" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H23" t="n">
         <v>61.5</v>
@@ -1398,7 +1428,7 @@
         <v>21.9882080772027</v>
       </c>
       <c r="K23" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L23" t="n">
         <v>86.0</v>
@@ -1418,22 +1448,22 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D24" t="n">
         <v>1.0</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F24" t="n">
         <v>79.0</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H24" t="n">
         <v>62.5</v>
@@ -1445,7 +1475,7 @@
         <v>19.5805184</v>
       </c>
       <c r="K24" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L24" t="n">
         <v>88.0</v>
@@ -1465,22 +1495,22 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D25" t="n">
         <v>1.0</v>
       </c>
       <c r="E25" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F25" t="n">
         <v>45.0</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H25" t="n">
         <v>61.0</v>
@@ -1492,7 +1522,7 @@
         <v>31.0975006718624</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="L25" t="n">
         <v>91.0</v>
@@ -1512,22 +1542,22 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D26" t="n">
         <v>1.0</v>
       </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F26" t="n">
         <v>82.0</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H26" t="n">
         <v>61.0</v>
@@ -1539,7 +1569,7 @@
         <v>29.6238645525396</v>
       </c>
       <c r="K26" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L26" t="n">
         <v>114.0</v>
@@ -1559,22 +1589,22 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D27" t="n">
         <v>1.0</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F27" t="n">
         <v>70.0</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H27" t="n">
         <v>67.0</v>
@@ -1586,7 +1616,7 @@
         <v>22.1752728892849</v>
       </c>
       <c r="K27" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L27" t="n">
         <v>104.0</v>
@@ -1606,22 +1636,22 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D28" t="n">
         <v>1.0</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F28" t="n">
         <v>75.0</v>
       </c>
       <c r="G28" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H28" t="n">
         <v>68.5</v>
@@ -1633,7 +1663,7 @@
         <v>21.724119558847</v>
       </c>
       <c r="K28" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L28" t="n">
         <v>86.0</v>
@@ -1653,22 +1683,22 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D29" t="n">
         <v>1.0</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F29" t="n">
         <v>89.0</v>
       </c>
       <c r="G29" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H29" t="n">
         <v>61.0</v>
@@ -1680,7 +1710,7 @@
         <v>29.6616500940607</v>
       </c>
       <c r="K29" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L29" t="n">
         <v>97.0</v>
@@ -1700,22 +1730,22 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D30" t="n">
         <v>1.0</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F30" t="n">
         <v>77.0</v>
       </c>
       <c r="G30" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H30" t="n">
         <v>61.5</v>
@@ -1727,7 +1757,7 @@
         <v>23.7911296186133</v>
       </c>
       <c r="K30" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L30" t="n">
         <v>93.0</v>
@@ -1747,22 +1777,22 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D31" t="n">
         <v>1.0</v>
       </c>
       <c r="E31" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F31" t="n">
         <v>65.0</v>
       </c>
       <c r="G31" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H31" t="n">
         <v>70.5</v>
@@ -1774,7 +1804,7 @@
         <v>25.4594839293798</v>
       </c>
       <c r="K31" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="L31" t="n">
         <v>92.0</v>
@@ -1794,46 +1824,46 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D32" t="n">
         <v>1.0</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F32" t="n">
-        <v>78.0</v>
+        <v>74.0</v>
       </c>
       <c r="G32" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H32" t="n">
-        <v>72.1</v>
+        <v>65.2</v>
       </c>
       <c r="I32" t="n">
-        <v>182.32</v>
+        <v>141.4</v>
       </c>
       <c r="J32" t="n">
-        <v>24.6558005236217</v>
+        <v>23.3835014490572</v>
       </c>
       <c r="K32" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L32" t="n">
-        <v>91.0</v>
+        <v>107.0</v>
       </c>
       <c r="M32" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="N32" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="33">
@@ -1841,46 +1871,46 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D33" t="n">
         <v>1.0</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F33" t="n">
-        <v>53.0</v>
+        <v>73.0</v>
       </c>
       <c r="G33" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="H33" t="n">
-        <v>71.0</v>
+        <v>73.0</v>
       </c>
       <c r="I33" t="n">
-        <v>191.36</v>
+        <v>285.4</v>
       </c>
       <c r="J33" t="n">
-        <v>26.6863876215037</v>
+        <v>37.649878025896</v>
       </c>
       <c r="K33" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="L33" t="n">
-        <v>86.0</v>
+        <v>176.0</v>
       </c>
       <c r="M33" t="n">
-        <v>5.4</v>
+        <v>6.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34">
@@ -1888,46 +1918,281 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>92</v>
+      </c>
+      <c r="F34" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" t="n">
+        <v>72.1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>182.32</v>
+      </c>
+      <c r="J34" t="n">
+        <v>24.6558005236217</v>
+      </c>
+      <c r="K34" t="s">
+        <v>97</v>
+      </c>
+      <c r="L34" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
         <v>48</v>
       </c>
-      <c r="C34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>191.36</v>
+      </c>
+      <c r="J35" t="n">
+        <v>26.6863876215037</v>
+      </c>
+      <c r="K35" t="s">
+        <v>98</v>
+      </c>
+      <c r="L35" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>93</v>
+      </c>
+      <c r="F36" t="n">
         <v>66.0</v>
       </c>
-      <c r="G34" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" t="n">
+      <c r="G36" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" t="n">
         <v>65.0</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I36" t="n">
         <v>76.5</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J36" t="n">
         <v>12.728875739645</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K36" t="s">
+        <v>99</v>
+      </c>
+      <c r="L36" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
         <v>89</v>
       </c>
-      <c r="L34" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0.0</v>
+      <c r="D37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>94</v>
+      </c>
+      <c r="H37" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>144.8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>4.02651793837269</v>
+      </c>
+      <c r="K37" t="s">
+        <v>99</v>
+      </c>
+      <c r="L37" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="M37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>228.39</v>
+      </c>
+      <c r="J38" t="n">
+        <v>33.7236231884058</v>
+      </c>
+      <c r="K38" t="s">
+        <v>96</v>
+      </c>
+      <c r="L38" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" t="n">
+        <v>67.1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>148.9</v>
+      </c>
+      <c r="J39" t="n">
+        <v>23.2490377375672</v>
+      </c>
+      <c r="K39" t="s">
+        <v>97</v>
+      </c>
+      <c r="L39" t="n">
+        <v>121.0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
